--- a/2006/motor-vehicle-theft-2006.xlsx
+++ b/2006/motor-vehicle-theft-2006.xlsx
@@ -4,11 +4,12 @@
   <workbookPr/>
   <sheets>
     <sheet sheetId="1" name="victim-age-gender-and-race" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="offender-age-gender-and-race" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="location" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="point-of-entry-exit-during-vehi" state="visible" r:id="rId6"/>
-    <sheet sheetId="5" name="vehicle-counts-by-type" state="visible" r:id="rId7"/>
-    <sheet sheetId="6" name="day-of-week-and-time-of-day" state="visible" r:id="rId8"/>
+    <sheet sheetId="2" name="monthly-time-chart" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="offender-age-gender-and-race" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="location" state="visible" r:id="rId6"/>
+    <sheet sheetId="5" name="point-of-entry-exit-during-vehi" state="visible" r:id="rId7"/>
+    <sheet sheetId="6" name="vehicle-counts-by-type" state="visible" r:id="rId8"/>
+    <sheet sheetId="7" name="day-of-week-and-time-of-day" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -66,6 +67,48 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Number of Motor Vehicle Thefts</t>
+  </si>
+  <si>
     <t>Offender Age, Gender and Race</t>
   </si>
   <si>
@@ -352,6 +395,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,###"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -385,12 +431,15 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="164" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
@@ -429,6 +478,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -637,48 +690,158 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" customWidth="1" max="1" width="30.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="1" r="A1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>28</v>
+      </c>
+      <c s="1" r="N1"/>
+      <c s="1" r="O1"/>
+      <c s="1" r="P1"/>
+      <c s="1" r="Q1"/>
+      <c s="1" r="R1"/>
+      <c s="1" r="S1"/>
+      <c s="1" r="T1"/>
+      <c s="1" r="U1"/>
+      <c s="1" r="V1"/>
+      <c s="1" r="W1"/>
+      <c s="1" r="X1"/>
+      <c s="1" r="Y1"/>
+      <c s="1" r="Z1"/>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>29</v>
+      </c>
+      <c s="3" r="B2">
+        <v>1220.0</v>
+      </c>
+      <c s="2" r="C2">
+        <v>971.0</v>
+      </c>
+      <c s="3" r="D2">
+        <v>1132.0</v>
+      </c>
+      <c s="3" r="E2">
+        <v>1129.0</v>
+      </c>
+      <c s="3" r="F2">
+        <v>1178.0</v>
+      </c>
+      <c s="3" r="G2">
+        <v>1331.0</v>
+      </c>
+      <c s="3" r="H2">
+        <v>1317.0</v>
+      </c>
+      <c s="3" r="I2">
+        <v>1495.0</v>
+      </c>
+      <c s="3" r="J2">
+        <v>1338.0</v>
+      </c>
+      <c s="3" r="K2">
+        <v>1333.0</v>
+      </c>
+      <c s="3" r="L2">
+        <v>1248.0</v>
+      </c>
+      <c s="3" r="M2">
+        <v>1073.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col min="1" customWidth="1" max="1" width="28.29"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="3" r="A1">
-        <v>16</v>
+      <c t="s" s="4" r="A1">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="B3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c t="s" s="1" r="D3">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c t="s" s="1" r="F3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c t="s" s="1" r="G3">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c s="2" r="B4">
         <v>645.0</v>
@@ -701,7 +864,7 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c s="2" r="B5">
         <v>949.0</v>
@@ -724,7 +887,7 @@
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c s="2" r="B6">
         <v>0.0</v>
@@ -747,7 +910,7 @@
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c s="2" r="B7">
         <v>6.0</v>
@@ -770,7 +933,7 @@
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c s="2" r="B8">
         <v>69.0</v>
@@ -793,7 +956,7 @@
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c t="str" s="2" r="B9">
         <f ref="B9:G9" t="shared" si="1">sum(B4:B8)</f>
@@ -831,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -843,151 +1006,151 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
-      <c t="s" s="3" r="A2">
-        <v>34</v>
+      <c t="s" s="4" r="A2">
+        <v>48</v>
       </c>
       <c s="2" r="B2">
         <v>43.0</v>
       </c>
     </row>
     <row r="3">
-      <c t="s" s="3" r="A3">
-        <v>35</v>
+      <c t="s" s="4" r="A3">
+        <v>49</v>
       </c>
       <c s="2" r="B3">
         <v>8.0</v>
       </c>
     </row>
     <row r="4">
-      <c t="s" s="3" r="A4">
-        <v>36</v>
+      <c t="s" s="4" r="A4">
+        <v>50</v>
       </c>
       <c s="2" r="B4">
         <v>35.0</v>
       </c>
     </row>
     <row r="5">
-      <c t="s" s="3" r="A5">
-        <v>37</v>
+      <c t="s" s="4" r="A5">
+        <v>51</v>
       </c>
       <c s="2" r="B5">
         <v>25.0</v>
       </c>
     </row>
     <row r="6">
-      <c t="s" s="3" r="A6">
-        <v>38</v>
+      <c t="s" s="4" r="A6">
+        <v>52</v>
       </c>
       <c s="2" r="B6">
         <v>325.0</v>
       </c>
     </row>
     <row r="7">
-      <c t="s" s="3" r="A7">
-        <v>39</v>
+      <c t="s" s="4" r="A7">
+        <v>53</v>
       </c>
       <c s="2" r="B7">
         <v>48.0</v>
       </c>
     </row>
     <row r="8">
-      <c t="s" s="3" r="A8">
-        <v>40</v>
+      <c t="s" s="4" r="A8">
+        <v>54</v>
       </c>
       <c s="2" r="B8">
         <v>131.0</v>
       </c>
     </row>
     <row r="9">
-      <c t="s" s="3" r="A9">
-        <v>41</v>
+      <c t="s" s="4" r="A9">
+        <v>55</v>
       </c>
       <c s="2" r="B9">
         <v>42.0</v>
       </c>
     </row>
     <row r="10">
-      <c t="s" s="3" r="A10">
-        <v>42</v>
+      <c t="s" s="4" r="A10">
+        <v>56</v>
       </c>
       <c s="2" r="B10">
         <v>26.0</v>
       </c>
     </row>
     <row r="11">
-      <c t="s" s="3" r="A11">
-        <v>43</v>
+      <c t="s" s="4" r="A11">
+        <v>57</v>
       </c>
       <c s="2" r="B11">
         <v>82.0</v>
       </c>
     </row>
     <row r="12">
-      <c t="s" s="3" r="A12">
-        <v>44</v>
+      <c t="s" s="4" r="A12">
+        <v>58</v>
       </c>
       <c s="2" r="B12">
         <v>34.0</v>
       </c>
     </row>
     <row r="13">
-      <c t="s" s="3" r="A13">
-        <v>45</v>
+      <c t="s" s="4" r="A13">
+        <v>59</v>
       </c>
       <c s="2" r="B13">
         <v>41.0</v>
       </c>
     </row>
     <row r="14">
-      <c t="s" s="3" r="A14">
-        <v>46</v>
+      <c t="s" s="4" r="A14">
+        <v>60</v>
       </c>
       <c s="2" r="B14">
         <v>3178.0</v>
       </c>
     </row>
     <row r="15">
-      <c t="s" s="3" r="A15">
-        <v>47</v>
+      <c t="s" s="4" r="A15">
+        <v>61</v>
       </c>
       <c s="2" r="B15">
         <v>142.0</v>
       </c>
     </row>
     <row r="16">
-      <c t="s" s="3" r="A16">
-        <v>48</v>
+      <c t="s" s="4" r="A16">
+        <v>62</v>
       </c>
       <c s="2" r="B16">
         <v>6.0</v>
       </c>
     </row>
     <row r="17">
-      <c t="s" s="3" r="A17">
-        <v>49</v>
+      <c t="s" s="4" r="A17">
+        <v>63</v>
       </c>
       <c s="2" r="B17">
         <v>11.0</v>
       </c>
     </row>
     <row r="18">
-      <c t="s" s="3" r="A18">
-        <v>50</v>
+      <c t="s" s="4" r="A18">
+        <v>64</v>
       </c>
       <c s="2" r="B18">
         <v>2.0</v>
       </c>
     </row>
     <row r="19">
-      <c t="s" s="3" r="A19">
-        <v>51</v>
+      <c t="s" s="4" r="A19">
+        <v>65</v>
       </c>
       <c s="2" r="B19">
         <v>3977.0</v>
@@ -995,281 +1158,68 @@
       <c s="2" r="C19"/>
     </row>
     <row r="20">
-      <c t="s" s="3" r="A20">
-        <v>52</v>
+      <c t="s" s="4" r="A20">
+        <v>66</v>
       </c>
       <c s="2" r="B20">
         <v>67.0</v>
       </c>
     </row>
     <row r="21">
-      <c t="s" s="3" r="A21">
-        <v>53</v>
+      <c t="s" s="4" r="A21">
+        <v>67</v>
       </c>
       <c s="2" r="B21">
         <v>5325.0</v>
       </c>
     </row>
     <row r="22">
-      <c t="s" s="3" r="A22">
-        <v>54</v>
+      <c t="s" s="4" r="A22">
+        <v>68</v>
       </c>
       <c s="2" r="B22">
         <v>62.0</v>
       </c>
     </row>
     <row r="23">
-      <c t="s" s="3" r="A23">
-        <v>55</v>
+      <c t="s" s="4" r="A23">
+        <v>69</v>
       </c>
       <c s="2" r="B23">
         <v>76.0</v>
       </c>
     </row>
     <row r="24">
-      <c t="s" s="3" r="A24">
-        <v>56</v>
+      <c t="s" s="4" r="A24">
+        <v>70</v>
       </c>
       <c s="2" r="B24">
         <v>191.0</v>
       </c>
     </row>
     <row r="25">
-      <c t="s" s="3" r="A25">
-        <v>57</v>
+      <c t="s" s="4" r="A25">
+        <v>71</v>
       </c>
       <c s="2" r="B25">
         <v>147.0</v>
       </c>
     </row>
     <row r="26">
-      <c t="s" s="3" r="A26">
-        <v>58</v>
+      <c t="s" s="4" r="A26">
+        <v>72</v>
       </c>
       <c s="2" r="B26">
         <v>741.0</v>
       </c>
     </row>
     <row r="27">
-      <c t="s" s="3" r="A27">
-        <v>59</v>
+      <c t="s" s="4" r="A27">
+        <v>73</v>
       </c>
       <c t="str" s="2" r="B27">
         <f>sum(B2:B26)</f>
         <v>14765</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="39.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="3" r="A1">
-        <v>60</v>
-      </c>
-      <c t="s" s="2" r="B1">
-        <v>61</v>
-      </c>
-      <c t="s" s="2" r="C1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="3" r="A2">
-        <v>63</v>
-      </c>
-      <c s="2" r="B2">
-        <v>174.0</v>
-      </c>
-      <c s="2" r="C2">
-        <v>95.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="3" r="A3">
-        <v>64</v>
-      </c>
-      <c s="2" r="B3">
-        <v>42.0</v>
-      </c>
-      <c s="2" r="C3">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="3" r="A4">
-        <v>65</v>
-      </c>
-      <c s="2" r="B4">
-        <v>81.0</v>
-      </c>
-      <c s="2" r="C4">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="3" r="A5">
-        <v>66</v>
-      </c>
-      <c s="2" r="B5">
-        <v>2.0</v>
-      </c>
-      <c s="2" r="C5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="3" r="A6">
-        <v>67</v>
-      </c>
-      <c s="2" r="B6">
-        <v>0.0</v>
-      </c>
-      <c s="2" r="C6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="3" r="A7">
-        <v>68</v>
-      </c>
-      <c s="2" r="B7">
-        <v>79.0</v>
-      </c>
-      <c s="2" r="C7">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="3" r="A8">
-        <v>69</v>
-      </c>
-      <c s="2" r="B8">
-        <v>384.0</v>
-      </c>
-      <c s="2" r="C8">
-        <v>234.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="3" r="A9">
-        <v>70</v>
-      </c>
-      <c s="2" r="B9">
-        <v>1.0</v>
-      </c>
-      <c s="2" r="C9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="3" r="A10">
-        <v>71</v>
-      </c>
-      <c s="2" r="B10">
-        <v>0.0</v>
-      </c>
-      <c s="2" r="C10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="3" r="A11">
-        <v>72</v>
-      </c>
-      <c s="2" r="B11">
-        <v>7.0</v>
-      </c>
-      <c s="2" r="C11">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="s" s="3" r="A12">
-        <v>73</v>
-      </c>
-      <c s="2" r="B12">
-        <v>1.0</v>
-      </c>
-      <c s="2" r="C12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="s" s="3" r="A13">
-        <v>74</v>
-      </c>
-      <c s="2" r="B13">
-        <v>220.0</v>
-      </c>
-      <c s="2" r="C13">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="s" s="3" r="A14">
-        <v>75</v>
-      </c>
-      <c s="2" r="B14">
-        <v>1.0</v>
-      </c>
-      <c s="2" r="C14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="s" s="3" r="A15">
-        <v>76</v>
-      </c>
-      <c s="2" r="B15">
-        <v>0.0</v>
-      </c>
-      <c s="2" r="C15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="s" s="3" r="A16">
-        <v>77</v>
-      </c>
-      <c s="2" r="B16">
-        <v>1.0</v>
-      </c>
-      <c s="2" r="C16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="s" s="3" r="A17">
-        <v>78</v>
-      </c>
-      <c s="2" r="B17">
-        <v>48.0</v>
-      </c>
-      <c s="2" r="C17">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="s" s="3" r="A18">
-        <v>79</v>
-      </c>
-      <c s="2" r="B18">
-        <v>523.0</v>
-      </c>
-      <c s="2" r="C18">
-        <v>336.0</v>
       </c>
     </row>
   </sheetData>
@@ -1284,73 +1234,205 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="18.43"/>
+    <col min="1" customWidth="1" max="1" width="39.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="2" r="A1">
+      <c t="s" s="4" r="A1">
+        <v>74</v>
+      </c>
+      <c t="s" s="2" r="B1">
+        <v>75</v>
+      </c>
+      <c t="s" s="2" r="C1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="4" r="A2">
+        <v>77</v>
+      </c>
+      <c s="2" r="B2">
+        <v>174.0</v>
+      </c>
+      <c s="2" r="C2">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="4" r="A3">
+        <v>78</v>
+      </c>
+      <c s="2" r="B3">
+        <v>42.0</v>
+      </c>
+      <c s="2" r="C3">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="4" r="A4">
+        <v>79</v>
+      </c>
+      <c s="2" r="B4">
+        <v>81.0</v>
+      </c>
+      <c s="2" r="C4">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="4" r="A5">
         <v>80</v>
       </c>
-      <c t="s" s="2" r="B1">
+      <c s="2" r="B5">
+        <v>2.0</v>
+      </c>
+      <c s="2" r="C5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="4" r="A6">
         <v>81</v>
       </c>
-      <c t="s" s="2" r="C1">
+      <c s="2" r="B6">
+        <v>0.0</v>
+      </c>
+      <c s="2" r="C6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="4" r="A7">
         <v>82</v>
       </c>
-    </row>
-    <row r="2">
-      <c t="s" s="2" r="A2">
+      <c s="2" r="B7">
+        <v>79.0</v>
+      </c>
+      <c s="2" r="C7">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="4" r="A8">
         <v>83</v>
       </c>
-      <c s="2" r="B2">
-        <v>10253.0</v>
-      </c>
-      <c s="2" r="C2">
-        <v>6943.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
+      <c s="2" r="B8">
+        <v>384.0</v>
+      </c>
+      <c s="2" r="C8">
+        <v>234.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="4" r="A9">
         <v>84</v>
       </c>
-      <c s="2" r="B3">
-        <v>5.0</v>
-      </c>
-      <c s="2" r="C3">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="2" r="A4">
+      <c s="2" r="B9">
+        <v>1.0</v>
+      </c>
+      <c s="2" r="C9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="4" r="A10">
         <v>85</v>
       </c>
-      <c s="2" r="B4">
-        <v>391.0</v>
-      </c>
-      <c s="2" r="C4">
-        <v>180.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="2" r="A5">
+      <c s="2" r="B10">
+        <v>0.0</v>
+      </c>
+      <c s="2" r="C10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" s="4" r="A11">
         <v>86</v>
       </c>
-      <c s="2" r="B5">
-        <v>1347.0</v>
-      </c>
-      <c s="2" r="C5">
-        <v>890.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="2" r="A6">
+      <c s="2" r="B11">
+        <v>7.0</v>
+      </c>
+      <c s="2" r="C11">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" s="4" r="A12">
         <v>87</v>
       </c>
-      <c s="2" r="B6">
-        <v>1894.0</v>
-      </c>
-      <c s="2" r="C6">
-        <v>629.0</v>
+      <c s="2" r="B12">
+        <v>1.0</v>
+      </c>
+      <c s="2" r="C12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="s" s="4" r="A13">
+        <v>88</v>
+      </c>
+      <c s="2" r="B13">
+        <v>220.0</v>
+      </c>
+      <c s="2" r="C13">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="s" s="4" r="A14">
+        <v>89</v>
+      </c>
+      <c s="2" r="B14">
+        <v>1.0</v>
+      </c>
+      <c s="2" r="C14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="s" s="4" r="A15">
+        <v>90</v>
+      </c>
+      <c s="2" r="B15">
+        <v>0.0</v>
+      </c>
+      <c s="2" r="C15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="s" s="4" r="A16">
+        <v>91</v>
+      </c>
+      <c s="2" r="B16">
+        <v>1.0</v>
+      </c>
+      <c s="2" r="C16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" s="4" r="A17">
+        <v>92</v>
+      </c>
+      <c s="2" r="B17">
+        <v>48.0</v>
+      </c>
+      <c s="2" r="C17">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" s="4" r="A18">
+        <v>93</v>
+      </c>
+      <c s="2" r="B18">
+        <v>523.0</v>
+      </c>
+      <c s="2" r="C18">
+        <v>336.0</v>
       </c>
     </row>
   </sheetData>
@@ -1364,54 +1446,135 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="18.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="2" r="A1">
+        <v>94</v>
+      </c>
+      <c t="s" s="2" r="B1">
+        <v>95</v>
+      </c>
+      <c t="s" s="2" r="C1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>97</v>
+      </c>
+      <c s="2" r="B2">
+        <v>10253.0</v>
+      </c>
+      <c s="2" r="C2">
+        <v>6943.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="2" r="A3">
+        <v>98</v>
+      </c>
+      <c s="2" r="B3">
+        <v>5.0</v>
+      </c>
+      <c s="2" r="C3">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="2" r="A4">
+        <v>99</v>
+      </c>
+      <c s="2" r="B4">
+        <v>391.0</v>
+      </c>
+      <c s="2" r="C4">
+        <v>180.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="2" r="A5">
+        <v>100</v>
+      </c>
+      <c s="2" r="B5">
+        <v>1347.0</v>
+      </c>
+      <c s="2" r="C5">
+        <v>890.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
+        <v>101</v>
+      </c>
+      <c s="2" r="B6">
+        <v>1894.0</v>
+      </c>
+      <c s="2" r="C6">
+        <v>629.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c t="s" s="1" r="D1">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c t="s" s="1" r="E1">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c t="s" s="1" r="F1">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c t="s" s="1" r="G1">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c t="s" s="1" r="H1">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c t="s" s="1" r="I1">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c t="s" s="1" r="J1">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c t="s" s="1" r="K1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c t="s" s="1" r="L1">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c t="s" s="1" r="M1">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c t="s" s="1" r="N1">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c s="2" r="B2">
         <v>184.0</v>
@@ -1454,8 +1617,8 @@
       </c>
     </row>
     <row r="3">
-      <c t="s" s="3" r="A3">
-        <v>103</v>
+      <c t="s" s="4" r="A3">
+        <v>117</v>
       </c>
       <c s="2" r="B3">
         <v>169.0</v>
@@ -1498,8 +1661,8 @@
       </c>
     </row>
     <row r="4">
-      <c t="s" s="3" r="A4">
-        <v>104</v>
+      <c t="s" s="4" r="A4">
+        <v>118</v>
       </c>
       <c s="2" r="B4">
         <v>191.0</v>
@@ -1542,8 +1705,8 @@
       </c>
     </row>
     <row r="5">
-      <c t="s" s="3" r="A5">
-        <v>105</v>
+      <c t="s" s="4" r="A5">
+        <v>119</v>
       </c>
       <c s="2" r="B5">
         <v>178.0</v>
@@ -1586,8 +1749,8 @@
       </c>
     </row>
     <row r="6">
-      <c t="s" s="3" r="A6">
-        <v>106</v>
+      <c t="s" s="4" r="A6">
+        <v>120</v>
       </c>
       <c s="2" r="B6">
         <v>208.0</v>
@@ -1630,8 +1793,8 @@
       </c>
     </row>
     <row r="7">
-      <c t="s" s="3" r="A7">
-        <v>107</v>
+      <c t="s" s="4" r="A7">
+        <v>121</v>
       </c>
       <c s="2" r="B7">
         <v>235.0</v>
@@ -1674,8 +1837,8 @@
       </c>
     </row>
     <row r="8">
-      <c t="s" s="3" r="A8">
-        <v>108</v>
+      <c t="s" s="4" r="A8">
+        <v>122</v>
       </c>
       <c s="2" r="B8">
         <v>243.0</v>
@@ -1718,8 +1881,8 @@
       </c>
     </row>
     <row r="9">
-      <c t="s" s="3" r="A9">
-        <v>109</v>
+      <c t="s" s="4" r="A9">
+        <v>123</v>
       </c>
       <c t="str" s="2" r="B9">
         <f ref="B9:N9" t="shared" si="1">sum(B2:B8)</f>
